--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-App.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Slit2-App.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H2">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I2">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J2">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N2">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P2">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q2">
-        <v>15.95237209952267</v>
+        <v>20.281495872792</v>
       </c>
       <c r="R2">
-        <v>143.571348895704</v>
+        <v>182.533462855128</v>
       </c>
       <c r="S2">
-        <v>0.0070452484923003</v>
+        <v>0.009179122908373003</v>
       </c>
       <c r="T2">
-        <v>0.007045248492300301</v>
+        <v>0.009179122908373</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H3">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I3">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J3">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>554.525406</v>
       </c>
       <c r="O3">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P3">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q3">
-        <v>26.597995940592</v>
+        <v>32.536223671644</v>
       </c>
       <c r="R3">
-        <v>239.381963465328</v>
+        <v>292.826013044796</v>
       </c>
       <c r="S3">
-        <v>0.0117468104197665</v>
+        <v>0.01472544224200865</v>
       </c>
       <c r="T3">
-        <v>0.0117468104197665</v>
+        <v>0.01472544224200865</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H4">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I4">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J4">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N4">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O4">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P4">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q4">
-        <v>7.3068482178</v>
+        <v>10.65830049438</v>
       </c>
       <c r="R4">
-        <v>65.7616339602</v>
+        <v>95.92470444941999</v>
       </c>
       <c r="S4">
-        <v>0.003227016086934366</v>
+        <v>0.004823798542568682</v>
       </c>
       <c r="T4">
-        <v>0.003227016086934366</v>
+        <v>0.00482379854256868</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.143896</v>
+        <v>0.176022</v>
       </c>
       <c r="H5">
-        <v>0.431688</v>
+        <v>0.5280659999999999</v>
       </c>
       <c r="I5">
-        <v>0.02807111181859822</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="J5">
-        <v>0.02807111181859823</v>
+        <v>0.03293066697281707</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N5">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O5">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P5">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q5">
-        <v>13.70346885730667</v>
+        <v>9.285091558049999</v>
       </c>
       <c r="R5">
-        <v>123.33121971576</v>
+        <v>83.56582402244999</v>
       </c>
       <c r="S5">
-        <v>0.006052036819597054</v>
+        <v>0.004202303279866738</v>
       </c>
       <c r="T5">
-        <v>0.006052036819597055</v>
+        <v>0.004202303279866738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>12.831823</v>
       </c>
       <c r="I6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J6">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N6">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O6">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P6">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q6">
-        <v>474.1804618409899</v>
+        <v>492.8334057009871</v>
       </c>
       <c r="R6">
-        <v>4267.624156568909</v>
+        <v>4435.500651308884</v>
       </c>
       <c r="S6">
-        <v>0.2094183337137338</v>
+        <v>0.2230495439121012</v>
       </c>
       <c r="T6">
-        <v>0.2094183337137338</v>
+        <v>0.2230495439121011</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>12.831823</v>
       </c>
       <c r="I7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J7">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>554.525406</v>
       </c>
       <c r="O7">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P7">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q7">
         <v>790.619095421682</v>
@@ -883,10 +883,10 @@
         <v>7115.571858795138</v>
       </c>
       <c r="S7">
-        <v>0.3491711424014554</v>
+        <v>0.357823204762621</v>
       </c>
       <c r="T7">
-        <v>0.3491711424014554</v>
+        <v>0.3578232047626209</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>12.831823</v>
       </c>
       <c r="I8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J8">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N8">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O8">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P8">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q8">
-        <v>217.194323258175</v>
+        <v>258.9930528091123</v>
       </c>
       <c r="R8">
-        <v>1954.748909323575</v>
+        <v>2330.93747528201</v>
       </c>
       <c r="S8">
-        <v>0.09592228471881173</v>
+        <v>0.1172166530053048</v>
       </c>
       <c r="T8">
-        <v>0.09592228471881174</v>
+        <v>0.1172166530053048</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>12.831823</v>
       </c>
       <c r="I9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901205</v>
       </c>
       <c r="J9">
-        <v>0.8344071140950421</v>
+        <v>0.8002039325901203</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N9">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O9">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P9">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q9">
-        <v>407.332348508579</v>
+        <v>225.6245458175528</v>
       </c>
       <c r="R9">
-        <v>3665.99113657721</v>
+        <v>2030.620912357975</v>
       </c>
       <c r="S9">
-        <v>0.1798953532610411</v>
+        <v>0.1021145309100935</v>
       </c>
       <c r="T9">
-        <v>0.1798953532610411</v>
+        <v>0.1021145309100935</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H10">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J10">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>110.8604276666667</v>
+        <v>115.2213693333333</v>
       </c>
       <c r="N10">
-        <v>332.581283</v>
+        <v>345.664108</v>
       </c>
       <c r="O10">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="P10">
-        <v>0.2509786052589675</v>
+        <v>0.2787408744545015</v>
       </c>
       <c r="Q10">
-        <v>78.15146497185144</v>
+        <v>102.7698568349573</v>
       </c>
       <c r="R10">
-        <v>703.3631847466629</v>
+        <v>924.928711514616</v>
       </c>
       <c r="S10">
-        <v>0.03451502305293338</v>
+        <v>0.04651220763402737</v>
       </c>
       <c r="T10">
-        <v>0.03451502305293339</v>
+        <v>0.04651220763402737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H11">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J11">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>554.525406</v>
       </c>
       <c r="O11">
-        <v>0.4184661617850055</v>
+        <v>0.44716501655323</v>
       </c>
       <c r="P11">
-        <v>0.4184661617850055</v>
+        <v>0.4471650165532299</v>
       </c>
       <c r="Q11">
-        <v>130.304906073174</v>
+        <v>164.866687825068</v>
       </c>
       <c r="R11">
-        <v>1172.744154658566</v>
+        <v>1483.800190425612</v>
       </c>
       <c r="S11">
-        <v>0.05754820896378357</v>
+        <v>0.07461636954860043</v>
       </c>
       <c r="T11">
-        <v>0.05754820896378358</v>
+        <v>0.07461636954860042</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H12">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J12">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.778675</v>
+        <v>60.55095666666667</v>
       </c>
       <c r="N12">
-        <v>152.336025</v>
+        <v>181.65287</v>
       </c>
       <c r="O12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134679</v>
       </c>
       <c r="P12">
-        <v>0.1149586132458188</v>
+        <v>0.1464834753134678</v>
       </c>
       <c r="Q12">
-        <v>35.796613129725</v>
+        <v>54.00745698352667</v>
       </c>
       <c r="R12">
-        <v>322.169518167525</v>
+        <v>486.06711285174</v>
       </c>
       <c r="S12">
-        <v>0.01580931244007269</v>
+        <v>0.02444302376559438</v>
       </c>
       <c r="T12">
-        <v>0.0158093124400727</v>
+        <v>0.02444302376559438</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7049536666666666</v>
+        <v>0.891934</v>
       </c>
       <c r="H13">
-        <v>2.114861</v>
+        <v>2.675802</v>
       </c>
       <c r="I13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="J13">
-        <v>0.1375217740863597</v>
+        <v>0.1668654004370625</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>95.23175666666668</v>
+        <v>52.74960833333333</v>
       </c>
       <c r="N13">
-        <v>285.6952700000001</v>
+        <v>158.248825</v>
       </c>
       <c r="O13">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="P13">
-        <v>0.2155966197102083</v>
+        <v>0.1276106336788006</v>
       </c>
       <c r="Q13">
-        <v>67.13397604527445</v>
+        <v>47.04916915918334</v>
       </c>
       <c r="R13">
-        <v>604.2057844074701</v>
+        <v>423.44252243265</v>
       </c>
       <c r="S13">
-        <v>0.02964922962957007</v>
+        <v>0.02129379948884037</v>
       </c>
       <c r="T13">
-        <v>0.02964922962957008</v>
+        <v>0.02129379948884037</v>
       </c>
     </row>
   </sheetData>
